--- a/first assignment/result_prim.xlsx
+++ b/first assignment/result_prim.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A3CA5B5D-441A-8847-AC5D-A0EA4975BDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95508DC8-CB87-BC49-A968-AB2AF8369C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="760" windowWidth="29200" windowHeight="18880"/>
+    <workbookView xWindow="260" yWindow="-19600" windowWidth="29200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_prim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -265,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1799,161 +1796,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="result_kruskal_union_find"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="I7" t="str">
-            <v>Time (ms)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>10</v>
-          </cell>
-          <cell r="I8">
-            <v>1.8000000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>20</v>
-          </cell>
-          <cell r="I9">
-            <v>1.4477500000000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>40</v>
-          </cell>
-          <cell r="I10">
-            <v>2.7499999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>80</v>
-          </cell>
-          <cell r="I11">
-            <v>6.275E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>100</v>
-          </cell>
-          <cell r="I12">
-            <v>6.7250000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>200</v>
-          </cell>
-          <cell r="I13">
-            <v>0.14725000000000002</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>400</v>
-          </cell>
-          <cell r="I14">
-            <v>0.24875000000000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>800</v>
-          </cell>
-          <cell r="I15">
-            <v>0.53500000000000003</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>1000</v>
-          </cell>
-          <cell r="I16">
-            <v>0.77649999999999997</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>2000</v>
-          </cell>
-          <cell r="I17">
-            <v>1.2362500000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>4000</v>
-          </cell>
-          <cell r="I18">
-            <v>3.1150000000000002</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>8000</v>
-          </cell>
-          <cell r="I19">
-            <v>7.1852499999999999</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>10000</v>
-          </cell>
-          <cell r="I20">
-            <v>10.257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>20000</v>
-          </cell>
-          <cell r="I21">
-            <v>18.333749999999998</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>40000</v>
-          </cell>
-          <cell r="I22">
-            <v>32.538249999999998</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>80000</v>
-          </cell>
-          <cell r="I23">
-            <v>96.396249999999995</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>100000</v>
-          </cell>
-          <cell r="I24">
-            <v>110.66375000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -2250,11 +2092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/first assignment/result_prim.xlsx
+++ b/first assignment/result_prim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95508DC8-CB87-BC49-A968-AB2AF8369C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F84049-86B7-43E9-BF55-16836A29DC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="-19600" windowWidth="29200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_prim" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>file</t>
   </si>
@@ -257,13 +257,28 @@
   </si>
   <si>
     <t>time (ms)</t>
+  </si>
+  <si>
+    <t>m*log(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>m*log(n)*const</t>
+  </si>
+  <si>
+    <t>choosen const</t>
+  </si>
+  <si>
+    <t>Media I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,6 +409,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,8 +763,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -815,6 +839,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PRIM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -854,15 +903,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>result_prim!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Measured Time (ms)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -890,7 +931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>result_prim!$H$8:$H$24</c:f>
+              <c:f>result_prim!$U$2:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -950,7 +991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>result_prim!$I$8:$I$24</c:f>
+              <c:f>result_prim!$V$2:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1012,6 +1053,163 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4DB0-3B44-ACE6-B8952B65EFDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0,000134*m*log(n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result_prim!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result_prim!$K$2:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.4405000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4456194951838241E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.116315401957324E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7095243689797797E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5778000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2634589204284903E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18497263860353089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4129384228397211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53114249999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1812636808583687</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5802654346179548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5954659022616635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1340260000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.393412160661361</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.903058390218078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.084839368867648</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.377330000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4E5-4E21-9223-9B22D94AD468}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1048,6 +1246,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1066,7 +1319,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1092,7 +1345,6 @@
       <c:valAx>
         <c:axId val="1204926544"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1111,6 +1363,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1160,6 +1467,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1184,7 +1522,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="none"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1757,16 +2095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>74303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>97494</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>651676</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2093,18 +2431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2120,8 +2460,32 @@
       <c r="E1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2137,8 +2501,37 @@
       <c r="E2">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>LOG10(B2)*C2</f>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f>E2/F2</f>
+        <v>7.7777777777777784E-4</v>
+      </c>
+      <c r="H2">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I2">
+        <f>F2*H2</f>
+        <v>1.206E-3</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGEIF(B:B,J2,I:I)</f>
+        <v>1.4405000000000002E-3</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <f>AVERAGEIF(B:B,U2,E:E)</f>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2154,8 +2547,37 @@
       <c r="E3">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">LOG10(B3)*C3</f>
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">E3/F3</f>
+        <v>1.1818181818181817E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">F3*H3</f>
+        <v>1.474E-3</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGEIF(B:B,J3,I:I)</f>
+        <v>4.4456194951838241E-3</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGEIF(B:B,U3,E:E)</f>
+        <v>0.99550000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2171,8 +2593,37 @@
       <c r="E4">
         <v>6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846153E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>1.7420000000000001E-3</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGEIF(B:B,J4,I:I)</f>
+        <v>1.116315401957324E-2</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <f>AVERAGEIF(B:B,U4,E:E)</f>
+        <v>2.6250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2188,8 +2639,37 @@
       <c r="E5">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1.34E-3</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGEIF(B:B,J5,I:I)</f>
+        <v>2.7095243689797797E-2</v>
+      </c>
+      <c r="U5">
+        <v>80</v>
+      </c>
+      <c r="V5">
+        <f>AVERAGEIF(B:B,U5,E:E)</f>
+        <v>4.9500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2205,8 +2685,37 @@
       <c r="E6">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>31.22471989593555</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>3.5228498563511033E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4.1841124660553638E-3</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGEIF(B:B,J6,I:I)</f>
+        <v>3.5778000000000004E-2</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <f>AVERAGEIF(B:B,U6,E:E)</f>
+        <v>6.3750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2222,14 +2731,37 @@
       <c r="E7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>31.22471989593555</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.163368012051304E-4</v>
+      </c>
+      <c r="H7">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>4.1841124660553638E-3</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGEIF(B:B,J7,I:I)</f>
+        <v>8.2634589204284903E-2</v>
+      </c>
+      <c r="U7">
+        <v>200</v>
+      </c>
+      <c r="V7">
+        <f>AVERAGEIF(B:B,U7,E:E)</f>
+        <v>0.12575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2245,15 +2777,37 @@
       <c r="E8">
         <v>3.9430000000000001</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>36.428839878591475</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.10823841805396676</v>
+      </c>
       <c r="H8">
-        <v>10</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I8">
-        <f>AVERAGEIF(B:B,H8,E:E)</f>
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.8814645437312582E-3</v>
+      </c>
+      <c r="J8">
+        <v>400</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGEIF(B:B,J8,I:I)</f>
+        <v>0.18497263860353089</v>
+      </c>
+      <c r="U8">
+        <v>400</v>
+      </c>
+      <c r="V8">
+        <f>AVERAGEIF(B:B,U8,E:E)</f>
+        <v>0.32150000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2269,15 +2823,37 @@
       <c r="E9">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>33.826779887263513</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4.4343564625398506E-4</v>
+      </c>
       <c r="H9">
-        <v>20</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I24" si="0">AVERAGEIF(B:B,H9,E:E)</f>
-        <v>0.99550000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4.5327885048933106E-3</v>
+      </c>
+      <c r="J9">
+        <v>800</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGEIF(B:B,J9,I:I)</f>
+        <v>0.4129384228397211</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
+      </c>
+      <c r="V9">
+        <f>AVERAGEIF(B:B,U9,E:E)</f>
+        <v>0.53699999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2293,15 +2869,37 @@
       <c r="E10">
         <v>2.8000000000000001E-2</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>89.715359514365886</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>3.1209817529089244E-4</v>
+      </c>
       <c r="H10">
-        <v>40</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2.6250000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2021858174925029E-2</v>
+      </c>
+      <c r="J10">
+        <v>1000</v>
+      </c>
+      <c r="K10">
+        <f>AVERAGEIF(B:B,J10,I:I)</f>
+        <v>0.53114249999999996</v>
+      </c>
+      <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="V10">
+        <f>AVERAGEIF(B:B,U10,E:E)</f>
+        <v>0.60075000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2317,15 +2915,37 @@
       <c r="E11">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>80.102999566398111</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.2458210230252812E-4</v>
+      </c>
       <c r="H11">
-        <v>80</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0733801941897348E-2</v>
+      </c>
+      <c r="J11">
+        <v>2000</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGEIF(B:B,J11,I:I)</f>
+        <v>1.1812636808583687</v>
+      </c>
+      <c r="U11">
+        <v>2000</v>
+      </c>
+      <c r="V11">
+        <f>AVERAGEIF(B:B,U11,E:E)</f>
+        <v>1.3245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2341,15 +2961,37 @@
       <c r="E12">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>80.102999566398111</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3.2458210230252812E-4</v>
+      </c>
       <c r="H12">
-        <v>100</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>6.3750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0733801941897348E-2</v>
+      </c>
+      <c r="J12">
+        <v>4000</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGEIF(B:B,J12,I:I)</f>
+        <v>2.5802654346179548</v>
+      </c>
+      <c r="U12">
+        <v>4000</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGEIF(B:B,U12,E:E)</f>
+        <v>3.1357500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2365,15 +3007,37 @@
       <c r="E13">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>83.307119549054036</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>3.0009439931816582E-4</v>
+      </c>
       <c r="H13">
-        <v>200</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0.12575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.116315401957324E-2</v>
+      </c>
+      <c r="J13">
+        <v>8000</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGEIF(B:B,J13,I:I)</f>
+        <v>5.5954659022616635</v>
+      </c>
+      <c r="U13">
+        <v>8000</v>
+      </c>
+      <c r="V13">
+        <f>AVERAGEIF(B:B,U13,E:E)</f>
+        <v>6.7137499999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2389,15 +3053,37 @@
       <c r="E14">
         <v>5.0999999999999997E-2</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>205.5337185951299</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2.4813446839086402E-4</v>
+      </c>
       <c r="H14">
-        <v>400</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0.32150000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.7541518291747408E-2</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
+      <c r="K14">
+        <f>AVERAGEIF(B:B,J14,I:I)</f>
+        <v>7.1340260000000004</v>
+      </c>
+      <c r="U14">
+        <v>10000</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGEIF(B:B,U14,E:E)</f>
+        <v>6.7255000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2413,15 +3099,37 @@
       <c r="E15">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>188.4059087122024</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.5476907984516522E-4</v>
+      </c>
       <c r="H15">
-        <v>800</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.53699999999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.5246391767435122E-2</v>
+      </c>
+      <c r="J15">
+        <v>20000</v>
+      </c>
+      <c r="K15">
+        <f>AVERAGEIF(B:B,J15,I:I)</f>
+        <v>15.393412160661361</v>
+      </c>
+      <c r="U15">
+        <v>20000</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGEIF(B:B,U15,E:E)</f>
+        <v>17.395500000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2437,15 +3145,37 @@
       <c r="E16">
         <v>4.7E-2</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>197.92135864716212</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.3746805459125674E-4</v>
+      </c>
       <c r="H16">
-        <v>1000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0.60075000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.6521462058719726E-2</v>
+      </c>
+      <c r="J16">
+        <v>40000</v>
+      </c>
+      <c r="K16">
+        <f>AVERAGEIF(B:B,J16,I:I)</f>
+        <v>32.903058390218078</v>
+      </c>
+      <c r="U16">
+        <v>40000</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGEIF(B:B,U16,E:E)</f>
+        <v>32.036250000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2461,15 +3191,37 @@
       <c r="E17">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>216.95225851708156</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.3968406853854357E-4</v>
+      </c>
       <c r="H17">
-        <v>2000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>1.3245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2.907160264128893E-2</v>
+      </c>
+      <c r="J17">
+        <v>80000</v>
+      </c>
+      <c r="K17">
+        <f>AVERAGEIF(B:B,J17,I:I)</f>
+        <v>70.084839368867648</v>
+      </c>
+      <c r="U17">
+        <v>80000</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGEIF(B:B,U17,E:E)</f>
+        <v>68.098500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2485,15 +3237,37 @@
       <c r="E18">
         <v>6.5000000000000002E-2</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.3897058823529413E-4</v>
+      </c>
       <c r="H18">
-        <v>4000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>3.1357500000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.6448000000000001E-2</v>
+      </c>
+      <c r="J18">
+        <v>100000</v>
+      </c>
+      <c r="K18">
+        <f>AVERAGEIF(B:B,J18,I:I)</f>
+        <v>89.377330000000001</v>
+      </c>
+      <c r="U18">
+        <v>100000</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGEIF(B:B,U18,E:E)</f>
+        <v>86.13900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2509,15 +3283,23 @@
       <c r="E19">
         <v>6.7000000000000004E-2</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.5968992248062017E-4</v>
+      </c>
       <c r="H19">
-        <v>8000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>6.7137499999999992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.4571999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2533,15 +3315,23 @@
       <c r="E20">
         <v>6.6000000000000003E-2</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.4087591240875913E-4</v>
+      </c>
       <c r="H20">
-        <v>10000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>6.7255000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.6715999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2557,15 +3347,23 @@
       <c r="E21">
         <v>5.7000000000000002E-2</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.1590909090909091E-4</v>
+      </c>
       <c r="H21">
-        <v>20000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>17.395500000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3.5376000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2581,15 +3379,23 @@
       <c r="E22">
         <v>0.128</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>614.37500884228302</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.0834180778479393E-4</v>
+      </c>
       <c r="H22">
-        <v>40000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>32.036250000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8.2326251184865931E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2605,15 +3411,23 @@
       <c r="E23">
         <v>0.123</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>618.97706883361093</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.9871495438721009E-4</v>
+      </c>
       <c r="H23">
-        <v>80000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>68.098500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8.2942927223703861E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2629,15 +3443,23 @@
       <c r="E24">
         <v>0.124</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>618.97706883361093</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2.0033052312206547E-4</v>
+      </c>
       <c r="H24">
-        <v>100000</v>
+        <v>1.34E-4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>86.13900000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8.2942927223703861E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2653,8 +3475,23 @@
       <c r="E25">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>614.37500884228302</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.0834180778479393E-4</v>
+      </c>
+      <c r="H25">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>8.2326251184865931E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2670,8 +3507,23 @@
       <c r="E26">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1405.1123953170998</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2.0140737562572976E-4</v>
+      </c>
+      <c r="H26">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.18828506097249137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2687,8 +3539,23 @@
       <c r="E27">
         <v>0.22500000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1347.8670755078847</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.6693040737360442E-4</v>
+      </c>
+      <c r="H27">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.18061418811805655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2704,8 +3571,24 @@
       <c r="E28">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1399.9082753344437</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>2.0287043444482193E-4</v>
+      </c>
+      <c r="H28">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.18758770889481546</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2721,8 +3604,23 @@
       <c r="E29">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1368.6835554385084</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>3.6093076302193814E-4</v>
+      </c>
+      <c r="H29">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.18340359642876014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2738,8 +3636,23 @@
       <c r="E30">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3085.9846561724362</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1.5554192696322301E-4</v>
+      </c>
+      <c r="H30">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.41352194392710645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2755,8 +3668,23 @@
       <c r="E31">
         <v>0.55300000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3071.4692062374766</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.8004412965527344E-4</v>
+      </c>
+      <c r="H31">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.41157687363582185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2772,8 +3700,23 @@
       <c r="E32">
         <v>0.56899999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>3123.7248260033316</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.8215432910843508E-4</v>
+      </c>
+      <c r="H32">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.41857912668444647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2789,8 +3732,23 @@
       <c r="E33">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3045.341396354549</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1.7929024333810121E-4</v>
+      </c>
+      <c r="H33">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.40807574711150957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2806,8 +3764,23 @@
       <c r="E34">
         <v>0.57499999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>3900</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1.4743589743589742E-4</v>
+      </c>
+      <c r="H34">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.52260000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2823,8 +3796,23 @@
       <c r="E35">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3939</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.4826097994414825E-4</v>
+      </c>
+      <c r="H35">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.52782600000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2840,8 +3828,23 @@
       <c r="E36">
         <v>0.65200000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>3984</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1.6365461847389558E-4</v>
+      </c>
+      <c r="H36">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.533856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2857,8 +3860,23 @@
       <c r="E37">
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>4032</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.4682539682539682E-4</v>
+      </c>
+      <c r="H37">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0.54028799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2874,8 +3892,23 @@
       <c r="E38">
         <v>1.3089999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>8909.4799582970845</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1.4692215551604382E-4</v>
+      </c>
+      <c r="H38">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.1938703144118095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -2891,8 +3924,23 @@
       <c r="E39">
         <v>1.446</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>8760.933608492207</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1.650509026342071E-4</v>
+      </c>
+      <c r="H39">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.1739651035379557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -2908,8 +3956,23 @@
       <c r="E40">
         <v>1.29</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>8754.3315485008789</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1.4735562536706803E-4</v>
+      </c>
+      <c r="H40">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.1730804274991178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2925,8 +3988,23 @@
       <c r="E41">
         <v>1.2529999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>8836.8572983924787</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1.417924899871286E-4</v>
+      </c>
+      <c r="H41">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.1841388779845923</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2942,8 +4020,23 @@
       <c r="E42">
         <v>3.024</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>19307.04155351788</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1.5662679295622099E-4</v>
+      </c>
+      <c r="H42">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>2.5871435681713959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2959,8 +4052,23 @@
       <c r="E43">
         <v>3.153</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>19144.948853908121</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1.6469095969177101E-4</v>
+      </c>
+      <c r="H43">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>2.5654231464236883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2976,8 +4084,23 @@
       <c r="E44">
         <v>3.3410000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>19235.000353691321</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1.736937841729148E-4</v>
+      </c>
+      <c r="H44">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>2.5774900473946372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2993,8 +4116,23 @@
       <c r="E45">
         <v>3.0249999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>19335.858033448501</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1.5644508740016326E-4</v>
+      </c>
+      <c r="H45">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>2.5910049764820995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -3010,8 +4148,23 @@
       <c r="E46">
         <v>6.2619999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>41782.578310748759</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1.4987107673030008E-4</v>
+      </c>
+      <c r="H46">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>5.5988654936403339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3027,8 +4180,23 @@
       <c r="E47">
         <v>5.6989999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>41645.970161204037</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1.3684397260863894E-4</v>
+      </c>
+      <c r="H47">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>5.5805600016013415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3044,8 +4212,23 @@
       <c r="E48">
         <v>9.3209999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>41614.745441308107</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>2.2398310745757157E-4</v>
+      </c>
+      <c r="H48">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>5.5763758891352868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -3061,8 +4244,23 @@
       <c r="E49">
         <v>5.5730000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>41985.538990072338</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1.3273617855228106E-4</v>
+      </c>
+      <c r="H49">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>5.6260622246696936</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -3078,8 +4276,23 @@
       <c r="E50">
         <v>6.6150000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>53204</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1.2433275693556875E-4</v>
+      </c>
+      <c r="H50">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>7.1293360000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -3095,8 +4308,23 @@
       <c r="E51">
         <v>7.141</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>53360</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>1.3382683658170916E-4</v>
+      </c>
+      <c r="H51">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>7.1502400000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3112,8 +4340,23 @@
       <c r="E52">
         <v>6.476</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>53148</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1.2184842327086626E-4</v>
+      </c>
+      <c r="H52">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>7.1218320000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3129,8 +4372,23 @@
       <c r="E53">
         <v>6.67</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>53244</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1.2527233115468411E-4</v>
+      </c>
+      <c r="H53">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>7.1346959999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -3146,8 +4404,23 @@
       <c r="E54">
         <v>15.326000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>114695.56689437138</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.3362329874627539E-4</v>
+      </c>
+      <c r="H54">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>15.369205963845765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -3163,8 +4436,23 @@
       <c r="E55">
         <v>14.816000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>115379.43066368197</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1.2841110338971052E-4</v>
+      </c>
+      <c r="H55">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>15.460843708933384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -3180,8 +4468,23 @@
       <c r="E56">
         <v>14.484</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>114721.37307434538</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.2625371900503335E-4</v>
+      </c>
+      <c r="H56">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>15.372663991962281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3197,8 +4500,23 @@
       <c r="E57">
         <v>24.956</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>114708.46998435838</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>2.1756022029936406E-4</v>
+      </c>
+      <c r="H57">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>15.370934977904023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -3214,8 +4532,23 @@
       <c r="E58">
         <v>33.087000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>245819.03443678311</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.3459901539280081E-4</v>
+      </c>
+      <c r="H58">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>32.93975061452894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -3231,8 +4564,23 @@
       <c r="E59">
         <v>29.356999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>245961.69829651428</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1.1935598185945702E-4</v>
+      </c>
+      <c r="H59">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>32.958867571732917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3248,8 +4596,23 @@
       <c r="E60">
         <v>35.616</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>245022.87805828339</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1.4535785507967158E-4</v>
+      </c>
+      <c r="H60">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>32.833065659809975</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3265,8 +4628,23 @@
       <c r="E61">
         <v>30.085000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>245377.23667761564</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1.2260713506822405E-4</v>
+      </c>
+      <c r="H61">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>32.880549714800495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -3282,8 +4660,23 @@
       <c r="E62">
         <v>60.756</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>524208.96286925668</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1.159003456702689E-4</v>
+      </c>
+      <c r="H62">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>70.244001024480397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -3299,8 +4692,23 @@
       <c r="E63">
         <v>68.911000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>522831.19458291196</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1.3180353566120644E-4</v>
+      </c>
+      <c r="H63">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>70.059380074110209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3316,8 +4724,23 @@
       <c r="E64">
         <v>78.295000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>522600.74935352331</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1.4981800178597878E-4</v>
+      </c>
+      <c r="H64">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>70.028500413372129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -3333,8 +4756,23 @@
       <c r="E65">
         <v>64.432000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>522443.85047393956</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1.2332808576759005E-4</v>
+      </c>
+      <c r="H65">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>70.0074759635079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -3350,8 +4788,23 @@
       <c r="E66">
         <v>81.269000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>666975</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1.2184714569511602E-4</v>
+      </c>
+      <c r="H66">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>89.374650000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3367,8 +4820,23 @@
       <c r="E67">
         <v>88.596000000000004</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" ref="F67:F69" si="3">LOG10(B67)*C67</f>
+        <v>666070</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G69" si="4">E67/F67</f>
+        <v>1.3301304667677572E-4</v>
+      </c>
+      <c r="H67">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I69" si="5">F67*H67</f>
+        <v>89.253380000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3384,8 +4852,23 @@
       <c r="E68">
         <v>87.686999999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>667620</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>1.3134267996764627E-4</v>
+      </c>
+      <c r="H68">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>89.46108000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -3400,6 +4883,21 @@
       </c>
       <c r="E69">
         <v>87.004000000000005</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>667315</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>1.3037920622194915E-4</v>
+      </c>
+      <c r="H69">
+        <v>1.34E-4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>89.420209999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3407,6 +4905,7 @@
     <sortCondition ref="A1:A69"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/first assignment/result_prim.xlsx
+++ b/first assignment/result_prim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F84049-86B7-43E9-BF55-16836A29DC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C15D6F-9876-2B4C-9C25-DB84586327ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_prim" sheetId="1" r:id="rId1"/>
@@ -2433,18 +2433,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2513,25 +2513,25 @@
         <v>1.34E-4</v>
       </c>
       <c r="I2">
-        <f>F2*H2</f>
+        <f>F2*$H$2</f>
         <v>1.206E-3</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2">
-        <f>AVERAGEIF(B:B,J2,I:I)</f>
+        <f t="shared" ref="K2:K18" si="0">AVERAGEIF(B:B,J2,I:I)</f>
         <v>1.4405000000000002E-3</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2">
-        <f>AVERAGEIF(B:B,U2,E:E)</f>
+        <f t="shared" ref="V2:V18" si="1">AVERAGEIF(B:B,U2,E:E)</f>
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2548,36 +2548,33 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">LOG10(B3)*C3</f>
+        <f t="shared" ref="F3:F66" si="2">LOG10(B3)*C3</f>
         <v>11</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">E3/F3</f>
+        <f t="shared" ref="G3:G66" si="3">E3/F3</f>
         <v>1.1818181818181817E-3</v>
       </c>
-      <c r="H3">
-        <v>1.34E-4</v>
-      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">F3*H3</f>
+        <f t="shared" ref="I3:I66" si="4">F3*$H$2</f>
         <v>1.474E-3</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
-        <f>AVERAGEIF(B:B,J3,I:I)</f>
+        <f t="shared" si="0"/>
         <v>4.4456194951838241E-3</v>
       </c>
       <c r="U3">
         <v>20</v>
       </c>
       <c r="V3">
-        <f>AVERAGEIF(B:B,U3,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.99550000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2594,36 +2591,33 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6153846153846153E-4</v>
       </c>
-      <c r="H4">
-        <v>1.34E-4</v>
-      </c>
       <c r="I4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7420000000000001E-3</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4">
-        <f>AVERAGEIF(B:B,J4,I:I)</f>
+        <f t="shared" si="0"/>
         <v>1.116315401957324E-2</v>
       </c>
       <c r="U4">
         <v>40</v>
       </c>
       <c r="V4">
-        <f>AVERAGEIF(B:B,U4,E:E)</f>
+        <f t="shared" si="1"/>
         <v>2.6250000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2640,36 +2634,33 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="H5">
-        <v>1.34E-4</v>
-      </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.34E-3</v>
       </c>
       <c r="J5">
         <v>80</v>
       </c>
       <c r="K5">
-        <f>AVERAGEIF(B:B,J5,I:I)</f>
+        <f t="shared" si="0"/>
         <v>2.7095243689797797E-2</v>
       </c>
       <c r="U5">
         <v>80</v>
       </c>
       <c r="V5">
-        <f>AVERAGEIF(B:B,U5,E:E)</f>
+        <f t="shared" si="1"/>
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2686,36 +2677,33 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.22471989593555</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.5228498563511033E-4</v>
       </c>
-      <c r="H6">
-        <v>1.34E-4</v>
-      </c>
       <c r="I6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1841124660553638E-3</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <f>AVERAGEIF(B:B,J6,I:I)</f>
+        <f t="shared" si="0"/>
         <v>3.5778000000000004E-2</v>
       </c>
       <c r="U6">
         <v>100</v>
       </c>
       <c r="V6">
-        <f>AVERAGEIF(B:B,U6,E:E)</f>
+        <f t="shared" si="1"/>
         <v>6.3750000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2732,36 +2720,33 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31.22471989593555</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.163368012051304E-4</v>
       </c>
-      <c r="H7">
-        <v>1.34E-4</v>
-      </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1841124660553638E-3</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7">
-        <f>AVERAGEIF(B:B,J7,I:I)</f>
+        <f t="shared" si="0"/>
         <v>8.2634589204284903E-2</v>
       </c>
       <c r="U7">
         <v>200</v>
       </c>
       <c r="V7">
-        <f>AVERAGEIF(B:B,U7,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.12575</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2778,36 +2763,33 @@
         <v>3.9430000000000001</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.428839878591475</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10823841805396676</v>
       </c>
-      <c r="H8">
-        <v>1.34E-4</v>
-      </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.8814645437312582E-3</v>
       </c>
       <c r="J8">
         <v>400</v>
       </c>
       <c r="K8">
-        <f>AVERAGEIF(B:B,J8,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.18497263860353089</v>
       </c>
       <c r="U8">
         <v>400</v>
       </c>
       <c r="V8">
-        <f>AVERAGEIF(B:B,U8,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.32150000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2824,36 +2806,33 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33.826779887263513</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4343564625398506E-4</v>
       </c>
-      <c r="H9">
-        <v>1.34E-4</v>
-      </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5327885048933106E-3</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
       <c r="K9">
-        <f>AVERAGEIF(B:B,J9,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.4129384228397211</v>
       </c>
       <c r="U9">
         <v>800</v>
       </c>
       <c r="V9">
-        <f>AVERAGEIF(B:B,U9,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.53699999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2870,36 +2849,33 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>89.715359514365886</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1209817529089244E-4</v>
       </c>
-      <c r="H10">
-        <v>1.34E-4</v>
-      </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2021858174925029E-2</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
-        <f>AVERAGEIF(B:B,J10,I:I)</f>
+        <f t="shared" si="0"/>
         <v>0.53114249999999996</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
-        <f>AVERAGEIF(B:B,U10,E:E)</f>
+        <f t="shared" si="1"/>
         <v>0.60075000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2916,36 +2892,33 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.102999566398111</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2458210230252812E-4</v>
       </c>
-      <c r="H11">
-        <v>1.34E-4</v>
-      </c>
       <c r="I11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0733801941897348E-2</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
-        <f>AVERAGEIF(B:B,J11,I:I)</f>
+        <f t="shared" si="0"/>
         <v>1.1812636808583687</v>
       </c>
       <c r="U11">
         <v>2000</v>
       </c>
       <c r="V11">
-        <f>AVERAGEIF(B:B,U11,E:E)</f>
+        <f t="shared" si="1"/>
         <v>1.3245</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2962,36 +2935,33 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.102999566398111</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2458210230252812E-4</v>
       </c>
-      <c r="H12">
-        <v>1.34E-4</v>
-      </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0733801941897348E-2</v>
       </c>
       <c r="J12">
         <v>4000</v>
       </c>
       <c r="K12">
-        <f>AVERAGEIF(B:B,J12,I:I)</f>
+        <f t="shared" si="0"/>
         <v>2.5802654346179548</v>
       </c>
       <c r="U12">
         <v>4000</v>
       </c>
       <c r="V12">
-        <f>AVERAGEIF(B:B,U12,E:E)</f>
+        <f t="shared" si="1"/>
         <v>3.1357500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3008,36 +2978,33 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83.307119549054036</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0009439931816582E-4</v>
       </c>
-      <c r="H13">
-        <v>1.34E-4</v>
-      </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.116315401957324E-2</v>
       </c>
       <c r="J13">
         <v>8000</v>
       </c>
       <c r="K13">
-        <f>AVERAGEIF(B:B,J13,I:I)</f>
+        <f t="shared" si="0"/>
         <v>5.5954659022616635</v>
       </c>
       <c r="U13">
         <v>8000</v>
       </c>
       <c r="V13">
-        <f>AVERAGEIF(B:B,U13,E:E)</f>
+        <f t="shared" si="1"/>
         <v>6.7137499999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3054,36 +3021,33 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205.5337185951299</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4813446839086402E-4</v>
       </c>
-      <c r="H14">
-        <v>1.34E-4</v>
-      </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7541518291747408E-2</v>
       </c>
       <c r="J14">
         <v>10000</v>
       </c>
       <c r="K14">
-        <f>AVERAGEIF(B:B,J14,I:I)</f>
+        <f t="shared" si="0"/>
         <v>7.1340260000000004</v>
       </c>
       <c r="U14">
         <v>10000</v>
       </c>
       <c r="V14">
-        <f>AVERAGEIF(B:B,U14,E:E)</f>
+        <f t="shared" si="1"/>
         <v>6.7255000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3100,36 +3064,33 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>188.4059087122024</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5476907984516522E-4</v>
       </c>
-      <c r="H15">
-        <v>1.34E-4</v>
-      </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5246391767435122E-2</v>
       </c>
       <c r="J15">
         <v>20000</v>
       </c>
       <c r="K15">
-        <f>AVERAGEIF(B:B,J15,I:I)</f>
+        <f t="shared" si="0"/>
         <v>15.393412160661361</v>
       </c>
       <c r="U15">
         <v>20000</v>
       </c>
       <c r="V15">
-        <f>AVERAGEIF(B:B,U15,E:E)</f>
+        <f t="shared" si="1"/>
         <v>17.395500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3146,36 +3107,33 @@
         <v>4.7E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>197.92135864716212</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3746805459125674E-4</v>
       </c>
-      <c r="H16">
-        <v>1.34E-4</v>
-      </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6521462058719726E-2</v>
       </c>
       <c r="J16">
         <v>40000</v>
       </c>
       <c r="K16">
-        <f>AVERAGEIF(B:B,J16,I:I)</f>
+        <f t="shared" si="0"/>
         <v>32.903058390218078</v>
       </c>
       <c r="U16">
         <v>40000</v>
       </c>
       <c r="V16">
-        <f>AVERAGEIF(B:B,U16,E:E)</f>
+        <f t="shared" si="1"/>
         <v>32.036250000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -3192,36 +3150,33 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>216.95225851708156</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3968406853854357E-4</v>
       </c>
-      <c r="H17">
-        <v>1.34E-4</v>
-      </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.907160264128893E-2</v>
       </c>
       <c r="J17">
         <v>80000</v>
       </c>
       <c r="K17">
-        <f>AVERAGEIF(B:B,J17,I:I)</f>
+        <f t="shared" si="0"/>
         <v>70.084839368867648</v>
       </c>
       <c r="U17">
         <v>80000</v>
       </c>
       <c r="V17">
-        <f>AVERAGEIF(B:B,U17,E:E)</f>
+        <f t="shared" si="1"/>
         <v>68.098500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3238,36 +3193,33 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>272</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3897058823529413E-4</v>
       </c>
-      <c r="H18">
-        <v>1.34E-4</v>
-      </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6448000000000001E-2</v>
       </c>
       <c r="J18">
         <v>100000</v>
       </c>
       <c r="K18">
-        <f>AVERAGEIF(B:B,J18,I:I)</f>
+        <f t="shared" si="0"/>
         <v>89.377330000000001</v>
       </c>
       <c r="U18">
         <v>100000</v>
       </c>
       <c r="V18">
-        <f>AVERAGEIF(B:B,U18,E:E)</f>
+        <f t="shared" si="1"/>
         <v>86.13900000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3284,22 +3236,19 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>258</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5968992248062017E-4</v>
       </c>
-      <c r="H19">
-        <v>1.34E-4</v>
-      </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.4571999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3316,22 +3265,19 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4087591240875913E-4</v>
       </c>
-      <c r="H20">
-        <v>1.34E-4</v>
-      </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6715999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3348,22 +3294,19 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1590909090909091E-4</v>
       </c>
-      <c r="H21">
-        <v>1.34E-4</v>
-      </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5376000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3380,22 +3323,19 @@
         <v>0.128</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>614.37500884228302</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0834180778479393E-4</v>
       </c>
-      <c r="H22">
-        <v>1.34E-4</v>
-      </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2326251184865931E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -3412,22 +3352,19 @@
         <v>0.123</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>618.97706883361093</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9871495438721009E-4</v>
       </c>
-      <c r="H23">
-        <v>1.34E-4</v>
-      </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2942927223703861E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3444,22 +3381,19 @@
         <v>0.124</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>618.97706883361093</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0033052312206547E-4</v>
       </c>
-      <c r="H24">
-        <v>1.34E-4</v>
-      </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2942927223703861E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -3476,22 +3410,19 @@
         <v>0.128</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>614.37500884228302</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0834180778479393E-4</v>
       </c>
-      <c r="H25">
-        <v>1.34E-4</v>
-      </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.2326251184865931E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3508,22 +3439,19 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1405.1123953170998</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0140737562572976E-4</v>
       </c>
-      <c r="H26">
-        <v>1.34E-4</v>
-      </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18828506097249137</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3540,22 +3468,19 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1347.8670755078847</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6693040737360442E-4</v>
       </c>
-      <c r="H27">
-        <v>1.34E-4</v>
-      </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18061418811805655</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3572,23 +3497,20 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1399.9082753344437</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.0287043444482193E-4</v>
       </c>
-      <c r="H28">
-        <v>1.34E-4</v>
-      </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18758770889481546</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -3605,22 +3527,19 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1368.6835554385084</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6093076302193814E-4</v>
       </c>
-      <c r="H29">
-        <v>1.34E-4</v>
-      </c>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18340359642876014</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3637,22 +3556,19 @@
         <v>0.48</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3085.9846561724362</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5554192696322301E-4</v>
       </c>
-      <c r="H30">
-        <v>1.34E-4</v>
-      </c>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41352194392710645</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -3669,22 +3585,19 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3071.4692062374766</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8004412965527344E-4</v>
       </c>
-      <c r="H31">
-        <v>1.34E-4</v>
-      </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41157687363582185</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -3701,22 +3614,19 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3123.7248260033316</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8215432910843508E-4</v>
       </c>
-      <c r="H32">
-        <v>1.34E-4</v>
-      </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41857912668444647</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3733,22 +3643,19 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3045.341396354549</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7929024333810121E-4</v>
       </c>
-      <c r="H33">
-        <v>1.34E-4</v>
-      </c>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40807574711150957</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3765,22 +3672,19 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4743589743589742E-4</v>
       </c>
-      <c r="H34">
-        <v>1.34E-4</v>
-      </c>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52260000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3797,22 +3701,19 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3939</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4826097994414825E-4</v>
       </c>
-      <c r="H35">
-        <v>1.34E-4</v>
-      </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52782600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -3829,22 +3730,19 @@
         <v>0.65200000000000002</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3984</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6365461847389558E-4</v>
       </c>
-      <c r="H36">
-        <v>1.34E-4</v>
-      </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.533856</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3861,22 +3759,19 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4032</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4682539682539682E-4</v>
       </c>
-      <c r="H37">
-        <v>1.34E-4</v>
-      </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54028799999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3893,22 +3788,19 @@
         <v>1.3089999999999999</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8909.4799582970845</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4692215551604382E-4</v>
       </c>
-      <c r="H38">
-        <v>1.34E-4</v>
-      </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1938703144118095</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3925,22 +3817,19 @@
         <v>1.446</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8760.933608492207</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.650509026342071E-4</v>
       </c>
-      <c r="H39">
-        <v>1.34E-4</v>
-      </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1739651035379557</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3957,22 +3846,19 @@
         <v>1.29</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8754.3315485008789</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4735562536706803E-4</v>
       </c>
-      <c r="H40">
-        <v>1.34E-4</v>
-      </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1730804274991178</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3989,22 +3875,19 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8836.8572983924787</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.417924899871286E-4</v>
       </c>
-      <c r="H41">
-        <v>1.34E-4</v>
-      </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1841388779845923</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -4021,22 +3904,19 @@
         <v>3.024</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19307.04155351788</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5662679295622099E-4</v>
       </c>
-      <c r="H42">
-        <v>1.34E-4</v>
-      </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5871435681713959</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4053,22 +3933,19 @@
         <v>3.153</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19144.948853908121</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6469095969177101E-4</v>
       </c>
-      <c r="H43">
-        <v>1.34E-4</v>
-      </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5654231464236883</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4085,22 +3962,19 @@
         <v>3.3410000000000002</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19235.000353691321</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.736937841729148E-4</v>
       </c>
-      <c r="H44">
-        <v>1.34E-4</v>
-      </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5774900473946372</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -4117,22 +3991,19 @@
         <v>3.0249999999999999</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19335.858033448501</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5644508740016326E-4</v>
       </c>
-      <c r="H45">
-        <v>1.34E-4</v>
-      </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5910049764820995</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -4149,22 +4020,19 @@
         <v>6.2619999999999996</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41782.578310748759</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4987107673030008E-4</v>
       </c>
-      <c r="H46">
-        <v>1.34E-4</v>
-      </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5988654936403339</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -4181,22 +4049,19 @@
         <v>5.6989999999999998</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41645.970161204037</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3684397260863894E-4</v>
       </c>
-      <c r="H47">
-        <v>1.34E-4</v>
-      </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5805600016013415</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4213,22 +4078,19 @@
         <v>9.3209999999999997</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41614.745441308107</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2398310745757157E-4</v>
       </c>
-      <c r="H48">
-        <v>1.34E-4</v>
-      </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5763758891352868</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4245,22 +4107,19 @@
         <v>5.5730000000000004</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41985.538990072338</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3273617855228106E-4</v>
       </c>
-      <c r="H49">
-        <v>1.34E-4</v>
-      </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6260622246696936</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -4277,22 +4136,19 @@
         <v>6.6150000000000002</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53204</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2433275693556875E-4</v>
       </c>
-      <c r="H50">
-        <v>1.34E-4</v>
-      </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1293360000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -4309,22 +4165,19 @@
         <v>7.141</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53360</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3382683658170916E-4</v>
       </c>
-      <c r="H51">
-        <v>1.34E-4</v>
-      </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1502400000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -4341,22 +4194,19 @@
         <v>6.476</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53148</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2184842327086626E-4</v>
       </c>
-      <c r="H52">
-        <v>1.34E-4</v>
-      </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1218320000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4373,22 +4223,19 @@
         <v>6.67</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53244</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2527233115468411E-4</v>
       </c>
-      <c r="H53">
-        <v>1.34E-4</v>
-      </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.1346959999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -4405,22 +4252,19 @@
         <v>15.326000000000001</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114695.56689437138</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3362329874627539E-4</v>
       </c>
-      <c r="H54">
-        <v>1.34E-4</v>
-      </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.369205963845765</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -4437,22 +4281,19 @@
         <v>14.816000000000001</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115379.43066368197</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2841110338971052E-4</v>
       </c>
-      <c r="H55">
-        <v>1.34E-4</v>
-      </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.460843708933384</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -4469,22 +4310,19 @@
         <v>14.484</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114721.37307434538</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2625371900503335E-4</v>
       </c>
-      <c r="H56">
-        <v>1.34E-4</v>
-      </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.372663991962281</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -4501,22 +4339,19 @@
         <v>24.956</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114708.46998435838</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1756022029936406E-4</v>
       </c>
-      <c r="H57">
-        <v>1.34E-4</v>
-      </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.370934977904023</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -4533,22 +4368,19 @@
         <v>33.087000000000003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245819.03443678311</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3459901539280081E-4</v>
       </c>
-      <c r="H58">
-        <v>1.34E-4</v>
-      </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.93975061452894</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -4565,22 +4397,19 @@
         <v>29.356999999999999</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245961.69829651428</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1935598185945702E-4</v>
       </c>
-      <c r="H59">
-        <v>1.34E-4</v>
-      </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.958867571732917</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -4597,22 +4426,19 @@
         <v>35.616</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245022.87805828339</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4535785507967158E-4</v>
       </c>
-      <c r="H60">
-        <v>1.34E-4</v>
-      </c>
       <c r="I60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.833065659809975</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -4629,22 +4455,19 @@
         <v>30.085000000000001</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245377.23667761564</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2260713506822405E-4</v>
       </c>
-      <c r="H61">
-        <v>1.34E-4</v>
-      </c>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32.880549714800495</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -4661,22 +4484,19 @@
         <v>60.756</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>524208.96286925668</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.159003456702689E-4</v>
       </c>
-      <c r="H62">
-        <v>1.34E-4</v>
-      </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.244001024480397</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -4693,22 +4513,19 @@
         <v>68.911000000000001</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522831.19458291196</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3180353566120644E-4</v>
       </c>
-      <c r="H63">
-        <v>1.34E-4</v>
-      </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.059380074110209</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -4725,22 +4542,19 @@
         <v>78.295000000000002</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522600.74935352331</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4981800178597878E-4</v>
       </c>
-      <c r="H64">
-        <v>1.34E-4</v>
-      </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.028500413372129</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -4757,22 +4571,19 @@
         <v>64.432000000000002</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>522443.85047393956</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2332808576759005E-4</v>
       </c>
-      <c r="H65">
-        <v>1.34E-4</v>
-      </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70.0074759635079</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
@@ -4789,22 +4600,19 @@
         <v>81.269000000000005</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>666975</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2184714569511602E-4</v>
       </c>
-      <c r="H66">
-        <v>1.34E-4</v>
-      </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89.374650000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -4821,22 +4629,19 @@
         <v>88.596000000000004</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F69" si="3">LOG10(B67)*C67</f>
+        <f t="shared" ref="F67:F69" si="5">LOG10(B67)*C67</f>
         <v>666070</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G69" si="4">E67/F67</f>
+        <f t="shared" ref="G67:G69" si="6">E67/F67</f>
         <v>1.3301304667677572E-4</v>
       </c>
-      <c r="H67">
-        <v>1.34E-4</v>
-      </c>
       <c r="I67">
-        <f t="shared" ref="I67:I69" si="5">F67*H67</f>
+        <f t="shared" ref="I67:I69" si="7">F67*$H$2</f>
         <v>89.253380000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -4853,22 +4658,19 @@
         <v>87.686999999999998</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>667620</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3134267996764627E-4</v>
       </c>
-      <c r="H68">
-        <v>1.34E-4</v>
-      </c>
       <c r="I68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89.46108000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -4885,18 +4687,15 @@
         <v>87.004000000000005</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>667315</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3037920622194915E-4</v>
       </c>
-      <c r="H69">
-        <v>1.34E-4</v>
-      </c>
       <c r="I69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>89.420209999999997</v>
       </c>
     </row>

--- a/first assignment/result_prim.xlsx
+++ b/first assignment/result_prim.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davide/Sviluppo/Advanced Algorithm/first assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C15D6F-9876-2B4C-9C25-DB84586327ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4D4B1B-3EEA-4299-B0FA-0A61AF9AA24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="29140" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="result_prim" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,248 +38,248 @@
     <t>MST</t>
   </si>
   <si>
+    <t>time (ms)</t>
+  </si>
+  <si>
+    <t>input_random_01_10</t>
+  </si>
+  <si>
+    <t>input_random_02_10</t>
+  </si>
+  <si>
+    <t>input_random_03_10</t>
+  </si>
+  <si>
+    <t>input_random_04_10</t>
+  </si>
+  <si>
+    <t>input_random_05_20</t>
+  </si>
+  <si>
+    <t>input_random_06_20</t>
+  </si>
+  <si>
     <t>input_random_07_20</t>
   </si>
   <si>
-    <t>input_random_02_10</t>
+    <t>input_random_08_20</t>
+  </si>
+  <si>
+    <t>input_random_09_40</t>
+  </si>
+  <si>
+    <t>input_random_10_40</t>
+  </si>
+  <si>
+    <t>input_random_11_40</t>
+  </si>
+  <si>
+    <t>input_random_12_40</t>
+  </si>
+  <si>
+    <t>input_random_13_80</t>
+  </si>
+  <si>
+    <t>input_random_14_80</t>
+  </si>
+  <si>
+    <t>input_random_15_80</t>
+  </si>
+  <si>
+    <t>input_random_16_80</t>
+  </si>
+  <si>
+    <t>input_random_17_100</t>
+  </si>
+  <si>
+    <t>input_random_18_100</t>
+  </si>
+  <si>
+    <t>input_random_19_100</t>
+  </si>
+  <si>
+    <t>input_random_20_100</t>
+  </si>
+  <si>
+    <t>input_random_21_200</t>
+  </si>
+  <si>
+    <t>input_random_22_200</t>
+  </si>
+  <si>
+    <t>input_random_23_200</t>
+  </si>
+  <si>
+    <t>input_random_24_200</t>
+  </si>
+  <si>
+    <t>input_random_25_400</t>
+  </si>
+  <si>
+    <t>input_random_26_400</t>
+  </si>
+  <si>
+    <t>input_random_27_400</t>
   </si>
   <si>
     <t>input_random_28_400</t>
   </si>
   <si>
+    <t>input_random_29_800</t>
+  </si>
+  <si>
+    <t>input_random_30_800</t>
+  </si>
+  <si>
+    <t>input_random_31_800</t>
+  </si>
+  <si>
+    <t>input_random_32_800</t>
+  </si>
+  <si>
+    <t>input_random_33_1000</t>
+  </si>
+  <si>
+    <t>input_random_34_1000</t>
+  </si>
+  <si>
+    <t>input_random_35_1000</t>
+  </si>
+  <si>
+    <t>input_random_36_1000</t>
+  </si>
+  <si>
+    <t>input_random_37_2000</t>
+  </si>
+  <si>
+    <t>input_random_38_2000</t>
+  </si>
+  <si>
+    <t>input_random_39_2000</t>
+  </si>
+  <si>
+    <t>input_random_40_2000</t>
+  </si>
+  <si>
+    <t>input_random_41_4000</t>
+  </si>
+  <si>
+    <t>input_random_42_4000</t>
+  </si>
+  <si>
+    <t>input_random_43_4000</t>
+  </si>
+  <si>
+    <t>input_random_44_4000</t>
+  </si>
+  <si>
+    <t>input_random_45_8000</t>
+  </si>
+  <si>
+    <t>input_random_46_8000</t>
+  </si>
+  <si>
+    <t>input_random_47_8000</t>
+  </si>
+  <si>
+    <t>input_random_48_8000</t>
+  </si>
+  <si>
+    <t>input_random_49_10000</t>
+  </si>
+  <si>
+    <t>input_random_50_10000</t>
+  </si>
+  <si>
+    <t>input_random_51_10000</t>
+  </si>
+  <si>
+    <t>input_random_52_10000</t>
+  </si>
+  <si>
+    <t>input_random_53_20000</t>
+  </si>
+  <si>
+    <t>input_random_54_20000</t>
+  </si>
+  <si>
+    <t>input_random_55_20000</t>
+  </si>
+  <si>
     <t>input_random_56_20000</t>
   </si>
   <si>
-    <t>input_random_47_8000</t>
-  </si>
-  <si>
-    <t>input_random_46_8000</t>
-  </si>
-  <si>
-    <t>input_random_13_80</t>
+    <t>input_random_57_40000</t>
+  </si>
+  <si>
+    <t>input_random_58_40000</t>
+  </si>
+  <si>
+    <t>input_random_59_40000</t>
+  </si>
+  <si>
+    <t>input_random_60_40000</t>
+  </si>
+  <si>
+    <t>input_random_61_80000</t>
   </si>
   <si>
     <t>input_random_62_80000</t>
   </si>
   <si>
-    <t>input_random_21_200</t>
-  </si>
-  <si>
-    <t>input_random_37_2000</t>
-  </si>
-  <si>
-    <t>input_random_59_40000</t>
-  </si>
-  <si>
-    <t>input_random_40_2000</t>
-  </si>
-  <si>
-    <t>input_random_51_10000</t>
-  </si>
-  <si>
-    <t>input_random_11_40</t>
+    <t>input_random_63_80000</t>
   </si>
   <si>
     <t>input_random_64_80000</t>
   </si>
   <si>
-    <t>input_random_34_1000</t>
-  </si>
-  <si>
-    <t>input_random_35_1000</t>
-  </si>
-  <si>
-    <t>input_random_05_20</t>
-  </si>
-  <si>
-    <t>input_random_23_200</t>
-  </si>
-  <si>
-    <t>input_random_15_80</t>
-  </si>
-  <si>
-    <t>input_random_04_10</t>
-  </si>
-  <si>
-    <t>input_random_63_80000</t>
-  </si>
-  <si>
-    <t>input_random_33_1000</t>
-  </si>
-  <si>
-    <t>input_random_20_100</t>
-  </si>
-  <si>
-    <t>input_random_58_40000</t>
-  </si>
-  <si>
-    <t>input_random_09_40</t>
-  </si>
-  <si>
-    <t>input_random_50_10000</t>
-  </si>
-  <si>
-    <t>input_random_41_4000</t>
-  </si>
-  <si>
-    <t>input_random_22_200</t>
-  </si>
-  <si>
-    <t>input_random_17_100</t>
-  </si>
-  <si>
-    <t>input_random_60_40000</t>
+    <t>input_random_65_100000</t>
   </si>
   <si>
     <t>input_random_66_100000</t>
   </si>
   <si>
-    <t>input_random_49_10000</t>
+    <t>input_random_67_100000</t>
   </si>
   <si>
     <t>input_random_68_100000</t>
   </si>
   <si>
-    <t>input_random_36_1000</t>
-  </si>
-  <si>
-    <t>input_random_06_20</t>
-  </si>
-  <si>
-    <t>input_random_03_10</t>
-  </si>
-  <si>
-    <t>input_random_65_100000</t>
-  </si>
-  <si>
-    <t>input_random_26_400</t>
-  </si>
-  <si>
-    <t>input_random_54_20000</t>
-  </si>
-  <si>
-    <t>input_random_12_40</t>
-  </si>
-  <si>
-    <t>input_random_44_4000</t>
-  </si>
-  <si>
-    <t>input_random_01_10</t>
-  </si>
-  <si>
-    <t>input_random_08_20</t>
-  </si>
-  <si>
-    <t>input_random_45_8000</t>
-  </si>
-  <si>
-    <t>input_random_27_400</t>
-  </si>
-  <si>
-    <t>input_random_10_40</t>
-  </si>
-  <si>
-    <t>input_random_32_800</t>
-  </si>
-  <si>
-    <t>input_random_42_4000</t>
-  </si>
-  <si>
-    <t>input_random_43_4000</t>
-  </si>
-  <si>
-    <t>input_random_30_800</t>
-  </si>
-  <si>
-    <t>input_random_18_100</t>
-  </si>
-  <si>
-    <t>input_random_25_400</t>
-  </si>
-  <si>
-    <t>input_random_61_80000</t>
-  </si>
-  <si>
-    <t>input_random_48_8000</t>
-  </si>
-  <si>
-    <t>input_random_14_80</t>
-  </si>
-  <si>
-    <t>input_random_24_200</t>
-  </si>
-  <si>
-    <t>input_random_55_20000</t>
-  </si>
-  <si>
-    <t>input_random_67_100000</t>
-  </si>
-  <si>
-    <t>input_random_29_800</t>
-  </si>
-  <si>
-    <t>input_random_38_2000</t>
-  </si>
-  <si>
-    <t>input_random_39_2000</t>
-  </si>
-  <si>
-    <t>input_random_16_80</t>
-  </si>
-  <si>
-    <t>input_random_52_10000</t>
-  </si>
-  <si>
-    <t>input_random_53_20000</t>
-  </si>
-  <si>
-    <t>input_random_31_800</t>
-  </si>
-  <si>
-    <t>input_random_57_40000</t>
-  </si>
-  <si>
-    <t>input_random_19_100</t>
+    <t>m*log(n)</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>choosen const</t>
+  </si>
+  <si>
+    <t>m*log(n)*const</t>
   </si>
   <si>
     <t>Vertices</t>
   </si>
   <si>
+    <t>Media I</t>
+  </si>
+  <si>
     <t>Time (ms)</t>
-  </si>
-  <si>
-    <t>time (ms)</t>
-  </si>
-  <si>
-    <t>m*log(n)</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>m*log(n)*const</t>
-  </si>
-  <si>
-    <t>choosen const</t>
-  </si>
-  <si>
-    <t>Media I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,28 +317,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,7 +346,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,14 +354,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -377,14 +369,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -392,7 +384,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -400,23 +392,15 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -763,9 +747,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,7 +914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>result_prim!$U$2:$U$18</c:f>
+              <c:f>result_prim!$J$2:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -996,55 +979,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>3.9999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99550000000000005</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6250000000000002E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9500000000000002E-2</c:v>
+                  <c:v>0.16749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3750000000000001E-2</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12575</c:v>
+                  <c:v>0.435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32150000000000001</c:v>
+                  <c:v>0.89249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53699999999999992</c:v>
+                  <c:v>1.7324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60075000000000001</c:v>
+                  <c:v>2.0449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3245</c:v>
+                  <c:v>4.3674999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1357500000000003</c:v>
+                  <c:v>8.5574999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7137499999999992</c:v>
+                  <c:v>16.434999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7255000000000003</c:v>
+                  <c:v>18.8125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.395500000000002</c:v>
+                  <c:v>40.852499999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.036250000000003</c:v>
+                  <c:v>93.96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.098500000000001</c:v>
+                  <c:v>222.60250000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>86.13900000000001</c:v>
+                  <c:v>275.065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DB0-3B44-ACE6-B8952B65EFDC}"/>
+              <c16:uniqueId val="{00000000-6386-4672-A174-42685B132FCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1060,7 +1043,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>0,000134*m*log(n)</c:v>
+            <c:v>0,00041*m*log(n)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1088,7 +1071,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>result_prim!$J$2:$J$18</c:f>
+              <c:f>result_prim!$U$2:$U$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1153,55 +1136,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.4405000000000002E-3</c:v>
+                  <c:v>4.4075E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4456194951838241E-3</c:v>
+                  <c:v>1.3602268604666925E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.116315401957324E-2</c:v>
+                  <c:v>3.4155919015112154E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7095243689797797E-2</c:v>
+                  <c:v>8.2903357558336541E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5778000000000004E-2</c:v>
+                  <c:v>0.10947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2634589204284903E-2</c:v>
+                  <c:v>0.25283717592355825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18497263860353089</c:v>
+                  <c:v>0.56596105841378841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4129384228397211</c:v>
+                  <c:v>1.2634683086886986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53114249999999996</c:v>
+                  <c:v>1.6251375000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1812636808583687</c:v>
+                  <c:v>3.6143142474024716</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5802654346179548</c:v>
+                  <c:v>7.8948420014429974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5954659022616635</c:v>
+                  <c:v>17.120455372591657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1340260000000004</c:v>
+                  <c:v>21.82799</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.393412160661361</c:v>
+                  <c:v>47.099246163217607</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.903058390218078</c:v>
+                  <c:v>100.67353686559264</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.084839368867648</c:v>
+                  <c:v>214.43868762116222</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.377330000000001</c:v>
+                  <c:v>273.46794999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4E5-4E21-9223-9B22D94AD468}"/>
+              <c16:uniqueId val="{00000001-6386-4672-A174-42685B132FCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1319,7 +1302,723 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204926544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1204926544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204925728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>PRIM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - KRUSKAL UNION FIND</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Prim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result_prim!$U$2:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result_prim!$V$2:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>3.9999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5574999999999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.434999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.8125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.852499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>222.60250000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>275.065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE58-4F42-BD9F-0A65ABBF523D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kruskal Union-Find</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result_prim!$U$2:$U$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]result_kruskal_union_find!$V$2:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>5.4999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5724999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.9575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.482500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.472500000000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194.03000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>273.95500000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE58-4F42-BD9F-0A65ABBF523D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1204925728"/>
+        <c:axId val="1204926544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1204925728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Number of vertices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1536,6 +2235,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2091,27 +2830,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>142340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>74303</xdr:rowOff>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>651676</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>48904</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187EF585-65AC-794A-92BF-9D76550CBE50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAABAF1-D782-42CA-8F18-733630A12B5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +3386,345 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F99BE3-68AE-4DD1-89EF-F38A3C465953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="result_prim"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="U2">
+            <v>10</v>
+          </cell>
+          <cell r="V2">
+            <v>8.5000000000000006E-3</v>
+          </cell>
+          <cell r="W2">
+            <v>1.828E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="U3">
+            <v>20</v>
+          </cell>
+          <cell r="V3">
+            <v>0.99550000000000005</v>
+          </cell>
+          <cell r="W3">
+            <v>5.64E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="U4">
+            <v>40</v>
+          </cell>
+          <cell r="V4">
+            <v>2.6250000000000002E-2</v>
+          </cell>
+          <cell r="W4">
+            <v>1.4161999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="U5">
+            <v>80</v>
+          </cell>
+          <cell r="V5">
+            <v>4.9500000000000002E-2</v>
+          </cell>
+          <cell r="W5">
+            <v>3.4375000000000003E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="U6">
+            <v>100</v>
+          </cell>
+          <cell r="V6">
+            <v>6.3750000000000001E-2</v>
+          </cell>
+          <cell r="W6">
+            <v>4.539E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="U7">
+            <v>200</v>
+          </cell>
+          <cell r="V7">
+            <v>0.12575</v>
+          </cell>
+          <cell r="W7">
+            <v>0.104835</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="U8">
+            <v>400</v>
+          </cell>
+          <cell r="V8">
+            <v>0.32150000000000001</v>
+          </cell>
+          <cell r="W8">
+            <v>0.23466699999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="U9">
+            <v>800</v>
+          </cell>
+          <cell r="V9">
+            <v>0.53699999999999992</v>
+          </cell>
+          <cell r="W9">
+            <v>0.52387700000000004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="U10">
+            <v>1000</v>
+          </cell>
+          <cell r="V10">
+            <v>0.60075000000000001</v>
+          </cell>
+          <cell r="W10">
+            <v>0.67383800000000005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="U11">
+            <v>2000</v>
+          </cell>
+          <cell r="V11">
+            <v>1.3245</v>
+          </cell>
+          <cell r="W11">
+            <v>1.498618</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="U12">
+            <v>4000</v>
+          </cell>
+          <cell r="V12">
+            <v>3.1357500000000003</v>
+          </cell>
+          <cell r="W12">
+            <v>3.2734709999999998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="U13">
+            <v>8000</v>
+          </cell>
+          <cell r="V13">
+            <v>6.7137499999999992</v>
+          </cell>
+          <cell r="W13">
+            <v>7.098725</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="U14">
+            <v>10000</v>
+          </cell>
+          <cell r="V14">
+            <v>6.7255000000000003</v>
+          </cell>
+          <cell r="W14">
+            <v>9.05063</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="U15">
+            <v>20000</v>
+          </cell>
+          <cell r="V15">
+            <v>17.395500000000002</v>
+          </cell>
+          <cell r="W15">
+            <v>19.528960000000001</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="U16">
+            <v>40000</v>
+          </cell>
+          <cell r="V16">
+            <v>32.036250000000003</v>
+          </cell>
+          <cell r="W16">
+            <v>41.742690000000003</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="U17">
+            <v>80000</v>
+          </cell>
+          <cell r="V17">
+            <v>68.098500000000001</v>
+          </cell>
+          <cell r="W17">
+            <v>88.913600000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="U18">
+            <v>100000</v>
+          </cell>
+          <cell r="V18">
+            <v>86.13900000000001</v>
+          </cell>
+          <cell r="W18">
+            <v>113.3892</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="result_kruskal_union_find"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="V2">
+            <v>5.4999999999999993E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="V3">
+            <v>0.11250000000000002</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="V4">
+            <v>0.16500000000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="V5">
+            <v>0.21249999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="V6">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="V7">
+            <v>0.35250000000000004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="V8">
+            <v>0.59250000000000003</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="V9">
+            <v>1.1750000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="V10">
+            <v>1.345</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="V11">
+            <v>2.2050000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="V12">
+            <v>4.5724999999999998</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="V13">
+            <v>10.715</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="V14">
+            <v>20.9575</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="V15">
+            <v>40.482500000000002</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="V16">
+            <v>88.472500000000011</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="V17">
+            <v>194.03000000000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="V18">
+            <v>273.95500000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2430,21 +4023,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="O22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2458,36 +4049,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="V1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -2499,7 +4090,7 @@
         <v>29316</v>
       </c>
       <c r="E2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <f>LOG10(B2)*C2</f>
@@ -2507,33 +4098,33 @@
       </c>
       <c r="G2">
         <f>E2/F2</f>
-        <v>7.7777777777777784E-4</v>
+        <v>4.4444444444444444E-3</v>
       </c>
       <c r="H2">
-        <v>1.34E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="I2">
         <f>F2*$H$2</f>
-        <v>1.206E-3</v>
+        <v>3.6899999999999997E-3</v>
       </c>
       <c r="J2">
         <v>10</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K18" si="0">AVERAGEIF(B:B,J2,I:I)</f>
-        <v>1.4405000000000002E-3</v>
+        <v>4.4075E-3</v>
       </c>
       <c r="U2">
         <v>10</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V18" si="1">AVERAGEIF(B:B,U2,E:E)</f>
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2545,7 +4136,7 @@
         <v>16940</v>
       </c>
       <c r="E3">
-        <v>1.2999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="2">LOG10(B3)*C3</f>
@@ -2553,30 +4144,30 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="3">E3/F3</f>
-        <v>1.1818181818181817E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="4">F3*$H$2</f>
-        <v>1.474E-3</v>
+        <v>4.5100000000000001E-3</v>
       </c>
       <c r="J3">
         <v>20</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>4.4456194951838241E-3</v>
+        <v>1.3602268604666925E-2</v>
       </c>
       <c r="U3">
         <v>20</v>
       </c>
       <c r="V3">
         <f t="shared" si="1"/>
-        <v>0.99550000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2588,7 +4179,7 @@
         <v>-44448</v>
       </c>
       <c r="E4">
-        <v>6.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
@@ -2596,30 +4187,30 @@
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>4.6153846153846153E-4</v>
+        <v>1.5384615384615385E-3</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
-        <v>1.7420000000000001E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.116315401957324E-2</v>
+        <v>3.4155919015112154E-2</v>
       </c>
       <c r="U4">
         <v>40</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>2.6250000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -2631,7 +4222,7 @@
         <v>25217</v>
       </c>
       <c r="E5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
@@ -2639,30 +4230,30 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>8.0000000000000004E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>1.34E-3</v>
+        <v>4.0999999999999995E-3</v>
       </c>
       <c r="J5">
         <v>80</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>2.7095243689797797E-2</v>
+        <v>8.2903357558336541E-2</v>
       </c>
       <c r="U5">
         <v>80</v>
       </c>
       <c r="V5">
         <f t="shared" si="1"/>
-        <v>4.9500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.16749999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -2674,7 +4265,7 @@
         <v>-32021</v>
       </c>
       <c r="E6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -2682,30 +4273,30 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>3.5228498563511033E-4</v>
+        <v>1.2810363114004013E-3</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>4.1841124660553638E-3</v>
+        <v>1.2802135157333576E-2</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.5778000000000004E-2</v>
+        <v>0.10947</v>
       </c>
       <c r="U6">
         <v>100</v>
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>6.3750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -2717,7 +4308,7 @@
         <v>25130</v>
       </c>
       <c r="E7">
-        <v>1.2999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -2725,30 +4316,30 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>4.163368012051304E-4</v>
+        <v>1.2810363114004013E-3</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>4.1841124660553638E-3</v>
+        <v>1.2802135157333576E-2</v>
       </c>
       <c r="J7">
         <v>200</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>8.2634589204284903E-2</v>
+        <v>0.25283717592355825</v>
       </c>
       <c r="U7">
         <v>200</v>
       </c>
       <c r="V7">
         <f t="shared" si="1"/>
-        <v>0.12575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -2760,7 +4351,7 @@
         <v>-41693</v>
       </c>
       <c r="E8">
-        <v>3.9430000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -2768,30 +4359,30 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.10823841805396676</v>
+        <v>1.3725389050718586E-3</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>4.8814645437312582E-3</v>
+        <v>1.4935824350222504E-2</v>
       </c>
       <c r="J8">
         <v>400</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.18497263860353089</v>
+        <v>0.56596105841378841</v>
       </c>
       <c r="U8">
         <v>400</v>
       </c>
       <c r="V8">
         <f t="shared" si="1"/>
-        <v>0.32150000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.89249999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -2803,7 +4394,7 @@
         <v>-37205</v>
       </c>
       <c r="E9">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
@@ -2811,30 +4402,30 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>4.4343564625398506E-4</v>
+        <v>1.4781188208466171E-3</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>4.5327885048933106E-3</v>
+        <v>1.386897975377804E-2</v>
       </c>
       <c r="J9">
         <v>800</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.4129384228397211</v>
+        <v>1.2634683086886986</v>
       </c>
       <c r="U9">
         <v>800</v>
       </c>
       <c r="V9">
         <f t="shared" si="1"/>
-        <v>0.53699999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.7324999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>40</v>
@@ -2846,7 +4437,7 @@
         <v>-114203</v>
       </c>
       <c r="E10">
-        <v>2.8000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
@@ -2854,30 +4445,30 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>3.1209817529089244E-4</v>
+        <v>1.0031727062921542E-3</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>1.2021858174925029E-2</v>
+        <v>3.6783297400890015E-2</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.53114249999999996</v>
+        <v>1.6251375000000001</v>
       </c>
       <c r="U10">
         <v>1000</v>
       </c>
       <c r="V10">
         <f t="shared" si="1"/>
-        <v>0.60075000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>2.0449999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -2889,7 +4480,7 @@
         <v>-31929</v>
       </c>
       <c r="E11">
-        <v>2.5999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
@@ -2897,30 +4488,30 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>3.2458210230252812E-4</v>
+        <v>9.9871416093085582E-4</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>1.0733801941897348E-2</v>
+        <v>3.2842229822223228E-2</v>
       </c>
       <c r="J11">
         <v>2000</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1.1812636808583687</v>
+        <v>3.6143142474024716</v>
       </c>
       <c r="U11">
         <v>2000</v>
       </c>
       <c r="V11">
         <f t="shared" si="1"/>
-        <v>1.3245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4.3674999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -2932,7 +4523,7 @@
         <v>-79570</v>
       </c>
       <c r="E12">
-        <v>2.5999999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
@@ -2940,30 +4531,30 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>3.2458210230252812E-4</v>
+        <v>1.1235534310472127E-3</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>1.0733801941897348E-2</v>
+        <v>3.2842229822223228E-2</v>
       </c>
       <c r="J12">
         <v>4000</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2.5802654346179548</v>
+        <v>7.8948420014429974</v>
       </c>
       <c r="U12">
         <v>4000</v>
       </c>
       <c r="V12">
         <f t="shared" si="1"/>
-        <v>3.1357500000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>8.5574999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -2975,7 +4566,7 @@
         <v>-79741</v>
       </c>
       <c r="E13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -2983,30 +4574,30 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>3.0009439931816582E-4</v>
+        <v>9.6030207781813064E-4</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>1.116315401957324E-2</v>
+        <v>3.4155919015112154E-2</v>
       </c>
       <c r="J13">
         <v>8000</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>5.5954659022616635</v>
+        <v>17.120455372591657</v>
       </c>
       <c r="U13">
         <v>8000</v>
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>6.7137499999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>16.434999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>80</v>
@@ -3018,7 +4609,7 @@
         <v>-139926</v>
       </c>
       <c r="E14">
-        <v>5.0999999999999997E-2</v>
+        <v>0.17</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -3026,30 +4617,30 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>2.4813446839086402E-4</v>
+        <v>8.2711489463621341E-4</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>2.7541518291747408E-2</v>
+        <v>8.4268824624003258E-2</v>
       </c>
       <c r="J14">
         <v>10000</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>7.1340260000000004</v>
+        <v>21.82799</v>
       </c>
       <c r="U14">
         <v>10000</v>
       </c>
       <c r="V14">
         <f t="shared" si="1"/>
-        <v>6.7255000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>18.8125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>80</v>
@@ -3061,7 +4652,7 @@
         <v>-198094</v>
       </c>
       <c r="E15">
-        <v>4.8000000000000001E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -3069,30 +4660,30 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>2.5476907984516522E-4</v>
+        <v>8.4923026615055068E-4</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>2.5246391767435122E-2</v>
+        <v>7.7246422572002982E-2</v>
       </c>
       <c r="J15">
         <v>20000</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>15.393412160661361</v>
+        <v>47.099246163217607</v>
       </c>
       <c r="U15">
         <v>20000</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>17.395500000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>40.852499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>80</v>
@@ -3104,7 +4695,7 @@
         <v>-110571</v>
       </c>
       <c r="E16">
-        <v>4.7E-2</v>
+        <v>0.16</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -3112,30 +4703,30 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>2.3746805459125674E-4</v>
+        <v>8.0840188797023579E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>2.6521462058719726E-2</v>
+        <v>8.1147757045336472E-2</v>
       </c>
       <c r="J16">
         <v>40000</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>32.903058390218078</v>
+        <v>100.67353686559264</v>
       </c>
       <c r="U16">
         <v>40000</v>
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
-        <v>32.036250000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>93.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>80</v>
@@ -3147,7 +4738,7 @@
         <v>-233320</v>
       </c>
       <c r="E17">
-        <v>5.1999999999999998E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -3155,30 +4746,30 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>2.3968406853854357E-4</v>
+        <v>8.2967562186418925E-4</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>2.907160264128893E-2</v>
+        <v>8.8950425992003437E-2</v>
       </c>
       <c r="J17">
         <v>80000</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>70.084839368867648</v>
+        <v>214.43868762116222</v>
       </c>
       <c r="U17">
         <v>80000</v>
       </c>
       <c r="V17">
         <f t="shared" si="1"/>
-        <v>68.098500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>222.60250000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -3190,7 +4781,7 @@
         <v>-141960</v>
       </c>
       <c r="E18">
-        <v>6.5000000000000002E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -3198,30 +4789,30 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>2.3897058823529413E-4</v>
+        <v>8.0882352941176472E-4</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>3.6448000000000001E-2</v>
+        <v>0.11151999999999999</v>
       </c>
       <c r="J18">
         <v>100000</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>89.377330000000001</v>
+        <v>273.46794999999997</v>
       </c>
       <c r="U18">
         <v>100000</v>
       </c>
       <c r="V18">
         <f t="shared" si="1"/>
-        <v>86.13900000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>275.065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -3233,7 +4824,7 @@
         <v>-271743</v>
       </c>
       <c r="E19">
-        <v>6.7000000000000004E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -3241,16 +4832,16 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>2.5968992248062017E-4</v>
+        <v>7.7519379844961239E-4</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>3.4571999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.10578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -3262,7 +4853,7 @@
         <v>-288906</v>
       </c>
       <c r="E20">
-        <v>6.6000000000000003E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -3270,16 +4861,16 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>2.4087591240875913E-4</v>
+        <v>8.0291970802919704E-4</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>3.6715999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.11234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -3291,7 +4882,7 @@
         <v>-229506</v>
       </c>
       <c r="E21">
-        <v>5.7000000000000002E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -3299,16 +4890,16 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>2.1590909090909091E-4</v>
+        <v>8.3333333333333339E-4</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>3.5376000000000005E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.10824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -3320,7 +4911,7 @@
         <v>-510185</v>
       </c>
       <c r="E22">
-        <v>0.128</v>
+        <v>0.43</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -3328,16 +4919,16 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>2.0834180778479393E-4</v>
+        <v>6.9989826052704212E-4</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>8.2326251184865931E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25189375362533606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -3349,7 +4940,7 @@
         <v>-515136</v>
       </c>
       <c r="E23">
-        <v>0.123</v>
+        <v>0.44</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -3357,16 +4948,16 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>1.9871495438721009E-4</v>
+        <v>7.1085024333636133E-4</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>8.2942927223703861E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25378059822178045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -3378,7 +4969,7 @@
         <v>-444357</v>
       </c>
       <c r="E24">
-        <v>0.124</v>
+        <v>0.44</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
@@ -3386,16 +4977,16 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>2.0033052312206547E-4</v>
+        <v>7.1085024333636133E-4</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>8.2942927223703861E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25378059822178045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -3407,7 +4998,7 @@
         <v>-393278</v>
       </c>
       <c r="E25">
-        <v>0.128</v>
+        <v>0.43</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -3415,16 +5006,16 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>2.0834180778479393E-4</v>
+        <v>6.9989826052704212E-4</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>8.2326251184865931E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.25189375362533606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>400</v>
@@ -3436,7 +5027,7 @@
         <v>-1119906</v>
       </c>
       <c r="E26">
-        <v>0.28299999999999997</v>
+        <v>0.88</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
@@ -3444,16 +5035,16 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>2.0140737562572976E-4</v>
+        <v>6.2628441890686282E-4</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>0.18828506097249137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.57609608208001084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>400</v>
@@ -3465,7 +5056,7 @@
         <v>-788168</v>
       </c>
       <c r="E27">
-        <v>0.22500000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
@@ -3473,16 +5064,16 @@
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>1.6693040737360442E-4</v>
+        <v>6.3062598341139442E-4</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>0.18061418811805655</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.55262550095823271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>400</v>
@@ -3494,7 +5085,7 @@
         <v>-895704</v>
       </c>
       <c r="E28">
-        <v>0.28399999999999997</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
@@ -3502,17 +5093,16 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>2.0287043444482193E-4</v>
+        <v>7.1433251565078144E-4</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>0.18758770889481546</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.57396239288712192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>400</v>
@@ -3524,7 +5114,7 @@
         <v>-733645</v>
       </c>
       <c r="E29">
-        <v>0.49399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
@@ -3532,16 +5122,16 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>3.6093076302193814E-4</v>
+        <v>6.1372842295228346E-4</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>0.18340359642876014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.56116025772978839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>800</v>
@@ -3553,7 +5143,7 @@
         <v>-1541291</v>
       </c>
       <c r="E30">
-        <v>0.48</v>
+        <v>1.76</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
@@ -3561,16 +5151,16 @@
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>1.5554192696322301E-4</v>
+        <v>5.7032039886515111E-4</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>0.41352194392710645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.2652537090306988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>800</v>
@@ -3582,7 +5172,7 @@
         <v>-1578294</v>
       </c>
       <c r="E31">
-        <v>0.55300000000000005</v>
+        <v>1.76</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
@@ -3590,16 +5180,16 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>1.8004412965527344E-4</v>
+        <v>5.7301567485222647E-4</v>
       </c>
       <c r="I31">
         <f t="shared" si="4"/>
-        <v>0.41157687363582185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.2593023745573653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>800</v>
@@ -3611,7 +5201,7 @@
         <v>-1664316</v>
       </c>
       <c r="E32">
-        <v>0.56899999999999995</v>
+        <v>1.68</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
@@ -3619,16 +5209,16 @@
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>1.8215432910843508E-4</v>
+        <v>5.3781946028501045E-4</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>0.41857912668444647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2807271786613659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>800</v>
@@ -3640,7 +5230,7 @@
         <v>-1652119</v>
       </c>
       <c r="E33">
-        <v>0.54600000000000004</v>
+        <v>1.73</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
@@ -3648,16 +5238,16 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>1.7929024333810121E-4</v>
+        <v>5.680808076463646E-4</v>
       </c>
       <c r="I33">
         <f t="shared" si="4"/>
-        <v>0.40807574711150957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2485899725053651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>1000</v>
@@ -3669,7 +5259,7 @@
         <v>-2089013</v>
       </c>
       <c r="E34">
-        <v>0.57499999999999996</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
@@ -3677,16 +5267,16 @@
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>1.4743589743589742E-4</v>
+        <v>5.5897435897435898E-4</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>0.52260000000000006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>1000</v>
@@ -3698,7 +5288,7 @@
         <v>-1934208</v>
       </c>
       <c r="E35">
-        <v>0.58399999999999996</v>
+        <v>1.97</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
@@ -3706,16 +5296,16 @@
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
-        <v>1.4826097994414825E-4</v>
+        <v>5.0012693577050008E-4</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>0.52782600000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6149899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1000</v>
@@ -3727,7 +5317,7 @@
         <v>-2229428</v>
       </c>
       <c r="E36">
-        <v>0.65200000000000002</v>
+        <v>1.99</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
@@ -3735,16 +5325,16 @@
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
-        <v>1.6365461847389558E-4</v>
+        <v>4.9949799196787146E-4</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>0.533856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.63344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -3756,7 +5346,7 @@
         <v>-2356163</v>
       </c>
       <c r="E37">
-        <v>0.59199999999999997</v>
+        <v>2.04</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
@@ -3764,16 +5354,16 @@
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>1.4682539682539682E-4</v>
+        <v>5.0595238095238091E-4</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>0.54028799999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6531199999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>2000</v>
@@ -3785,7 +5375,7 @@
         <v>-4811598</v>
       </c>
       <c r="E38">
-        <v>1.3089999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
@@ -3793,16 +5383,16 @@
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>1.4692215551604382E-4</v>
+        <v>4.8263198527042663E-4</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>1.1938703144118095</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6528867829018048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>2000</v>
@@ -3814,7 +5404,7 @@
         <v>-4739387</v>
       </c>
       <c r="E39">
-        <v>1.446</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
@@ -3822,16 +5412,16 @@
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>1.650509026342071E-4</v>
+        <v>4.9652242493693005E-4</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>1.1739651035379557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5919827794818047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>2000</v>
@@ -3843,7 +5433,7 @@
         <v>-4717250</v>
       </c>
       <c r="E40">
-        <v>1.29</v>
+        <v>4.51</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
@@ -3851,16 +5441,16 @@
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>1.4735562536706803E-4</v>
+        <v>5.1517354294998202E-4</v>
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>1.1730804274991178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5892759348853605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>2000</v>
@@ -3872,7 +5462,7 @@
         <v>-4537267</v>
       </c>
       <c r="E41">
-        <v>1.2529999999999999</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
@@ -3880,16 +5470,16 @@
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>1.417924899871286E-4</v>
+        <v>4.8772995358701063E-4</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
-        <v>1.1841388779845923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6231114923409162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>4000</v>
@@ -3901,7 +5491,7 @@
         <v>-8722212</v>
       </c>
       <c r="E42">
-        <v>3.024</v>
+        <v>8.67</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
@@ -3909,16 +5499,16 @@
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>1.5662679295622099E-4</v>
+        <v>4.4905895996376848E-4</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>2.5871435681713959</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.9158870369423306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>4000</v>
@@ -3930,7 +5520,7 @@
         <v>-9314968</v>
       </c>
       <c r="E43">
-        <v>3.153</v>
+        <v>8.41</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
@@ -3938,16 +5528,16 @@
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>1.6469095969177101E-4</v>
+        <v>4.3928035870846631E-4</v>
       </c>
       <c r="I43">
         <f t="shared" si="4"/>
-        <v>2.5654231464236883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.8494290301023293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>4000</v>
@@ -3959,7 +5549,7 @@
         <v>-9845767</v>
       </c>
       <c r="E44">
-        <v>3.3410000000000002</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
@@ -3967,16 +5557,16 @@
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>1.736937841729148E-4</v>
+        <v>4.4814140064966339E-4</v>
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>2.5774900473946372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.8863501450134414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>4000</v>
@@ -3988,7 +5578,7 @@
         <v>-8681447</v>
       </c>
       <c r="E45">
-        <v>3.0249999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
@@ -3996,16 +5586,16 @@
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>1.5644508740016326E-4</v>
+        <v>4.4114928777632816E-4</v>
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>2.5910049764820995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.9277017937138856</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>8000</v>
@@ -4017,7 +5607,7 @@
         <v>-17844628</v>
       </c>
       <c r="E46">
-        <v>6.2619999999999996</v>
+        <v>18.05</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
@@ -4025,16 +5615,16 @@
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>1.4987107673030008E-4</v>
+        <v>4.3199823298976638E-4</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
-        <v>5.5988654936403339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.130857107406992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>8000</v>
@@ -4046,7 +5636,7 @@
         <v>-18798446</v>
       </c>
       <c r="E47">
-        <v>5.6989999999999998</v>
+        <v>14.6</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -4054,16 +5644,16 @@
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>1.3684397260863894E-4</v>
+        <v>3.5057413582841349E-4</v>
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>5.5805600016013415</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.074847766093654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>8000</v>
@@ -4075,7 +5665,7 @@
         <v>-18741474</v>
       </c>
       <c r="E48">
-        <v>9.3209999999999997</v>
+        <v>15.53</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
@@ -4083,16 +5673,16 @@
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>2.2398310745757157E-4</v>
+        <v>3.7318502937625642E-4</v>
       </c>
       <c r="I48">
         <f t="shared" si="4"/>
-        <v>5.5763758891352868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.062045630936325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>8000</v>
@@ -4104,7 +5694,7 @@
         <v>-18178610</v>
       </c>
       <c r="E49">
-        <v>5.5730000000000004</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -4112,16 +5702,16 @@
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
-        <v>1.3273617855228106E-4</v>
+        <v>4.1823924194833218E-4</v>
       </c>
       <c r="I49">
         <f t="shared" si="4"/>
-        <v>5.6260622246696936</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17.214070985929659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>10000</v>
@@ -4133,7 +5723,7 @@
         <v>-22079522</v>
       </c>
       <c r="E50">
-        <v>6.6150000000000002</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
@@ -4141,16 +5731,16 @@
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>1.2433275693556875E-4</v>
+        <v>3.5222915570257872E-4</v>
       </c>
       <c r="I50">
         <f t="shared" si="4"/>
-        <v>7.1293360000000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.813639999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>10000</v>
@@ -4162,7 +5752,7 @@
         <v>-22338561</v>
       </c>
       <c r="E51">
-        <v>7.141</v>
+        <v>19.23</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
@@ -4170,16 +5760,16 @@
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
-        <v>1.3382683658170916E-4</v>
+        <v>3.6038230884557723E-4</v>
       </c>
       <c r="I51">
         <f t="shared" si="4"/>
-        <v>7.1502400000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.877600000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>10000</v>
@@ -4191,7 +5781,7 @@
         <v>-22581384</v>
       </c>
       <c r="E52">
-        <v>6.476</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
@@ -4199,16 +5789,16 @@
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>1.2184842327086626E-4</v>
+        <v>3.3246782569428766E-4</v>
       </c>
       <c r="I52">
         <f t="shared" si="4"/>
-        <v>7.1218320000000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.790679999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>10000</v>
@@ -4220,7 +5810,7 @@
         <v>-22606313</v>
       </c>
       <c r="E53">
-        <v>6.67</v>
+        <v>19.61</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
@@ -4228,16 +5818,16 @@
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>1.2527233115468411E-4</v>
+        <v>3.6830440988655999E-4</v>
       </c>
       <c r="I53">
         <f t="shared" si="4"/>
-        <v>7.1346959999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>21.83004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>20000</v>
@@ -4249,7 +5839,7 @@
         <v>-45962292</v>
       </c>
       <c r="E54">
-        <v>15.326000000000001</v>
+        <v>43.05</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
@@ -4257,16 +5847,16 @@
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>1.3362329874627539E-4</v>
+        <v>3.7534144662841937E-4</v>
       </c>
       <c r="I54">
         <f t="shared" si="4"/>
-        <v>15.369205963845765</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.025182426692268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>20000</v>
@@ -4278,7 +5868,7 @@
         <v>-45195405</v>
       </c>
       <c r="E55">
-        <v>14.816000000000001</v>
+        <v>40</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
@@ -4286,16 +5876,16 @@
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
-        <v>1.2841110338971052E-4</v>
+        <v>3.4668224457265256E-4</v>
       </c>
       <c r="I55">
         <f t="shared" si="4"/>
-        <v>15.460843708933384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.305566572109605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>20000</v>
@@ -4307,7 +5897,7 @@
         <v>-47854708</v>
       </c>
       <c r="E56">
-        <v>14.484</v>
+        <v>39.71</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
@@ -4315,16 +5905,16 @@
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>1.2625371900503335E-4</v>
+        <v>3.4614299790733735E-4</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
-        <v>15.372663991962281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.035762960481605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>20000</v>
@@ -4336,7 +5926,7 @@
         <v>-46418161</v>
       </c>
       <c r="E57">
-        <v>24.956</v>
+        <v>40.65</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
@@ -4344,16 +5934,16 @@
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>2.1756022029936406E-4</v>
+        <v>3.5437662105983127E-4</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
-        <v>15.370934977904023</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47.030472693586937</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>40000</v>
@@ -4365,7 +5955,7 @@
         <v>-92003321</v>
       </c>
       <c r="E58">
-        <v>33.087000000000003</v>
+        <v>97.28</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
@@ -4373,16 +5963,16 @@
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>1.3459901539280081E-4</v>
+        <v>3.9573827235505368E-4</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
-        <v>32.93975061452894</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.78580411908108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>40000</v>
@@ -4394,7 +5984,7 @@
         <v>-94397064</v>
       </c>
       <c r="E59">
-        <v>29.356999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
@@ -4402,16 +5992,16 @@
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>1.1935598185945702E-4</v>
+        <v>3.9355721102276935E-4</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
-        <v>32.958867571732917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.84429630157085</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>40000</v>
@@ -4423,7 +6013,7 @@
         <v>-88771991</v>
       </c>
       <c r="E60">
-        <v>35.616</v>
+        <v>94.34</v>
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
@@ -4431,16 +6021,16 @@
       </c>
       <c r="G60">
         <f t="shared" si="3"/>
-        <v>1.4535785507967158E-4</v>
+        <v>3.8502527089555869E-4</v>
       </c>
       <c r="I60">
         <f t="shared" si="4"/>
-        <v>32.833065659809975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.45938000389619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>40000</v>
@@ -4452,7 +6042,7 @@
         <v>-93017025</v>
       </c>
       <c r="E61">
-        <v>30.085000000000001</v>
+        <v>87.42</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
@@ -4460,16 +6050,16 @@
       </c>
       <c r="G61">
         <f t="shared" si="3"/>
-        <v>1.2260713506822405E-4</v>
+        <v>3.5626776625109346E-4</v>
       </c>
       <c r="I61">
         <f t="shared" si="4"/>
-        <v>32.880549714800495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100.60466703782241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>80000</v>
@@ -4481,7 +6071,7 @@
         <v>-186834082</v>
       </c>
       <c r="E62">
-        <v>60.756</v>
+        <v>269.7</v>
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
@@ -4489,16 +6079,16 @@
       </c>
       <c r="G62">
         <f t="shared" si="3"/>
-        <v>1.159003456702689E-4</v>
+        <v>5.1448948626097043E-4</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
-        <v>70.244001024480397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.92567477639523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>80000</v>
@@ -4510,7 +6100,7 @@
         <v>-185997521</v>
       </c>
       <c r="E63">
-        <v>68.911000000000001</v>
+        <v>236.91</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
@@ -4518,16 +6108,16 @@
       </c>
       <c r="G63">
         <f t="shared" si="3"/>
-        <v>1.3180353566120644E-4</v>
+        <v>4.5312904519592543E-4</v>
       </c>
       <c r="I63">
         <f t="shared" si="4"/>
-        <v>70.059380074110209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.3607897789939</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>80000</v>
@@ -4539,7 +6129,7 @@
         <v>-182065015</v>
       </c>
       <c r="E64">
-        <v>78.295000000000002</v>
+        <v>182.3</v>
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
@@ -4547,16 +6137,16 @@
       </c>
       <c r="G64">
         <f t="shared" si="3"/>
-        <v>1.4981800178597878E-4</v>
+        <v>3.4883225909169079E-4</v>
       </c>
       <c r="I64">
         <f t="shared" si="4"/>
-        <v>70.028500413372129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.26630723494455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>80000</v>
@@ -4568,7 +6158,7 @@
         <v>-180793224</v>
       </c>
       <c r="E65">
-        <v>64.432000000000002</v>
+        <v>201.5</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
@@ -4576,16 +6166,16 @@
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
-        <v>1.2332808576759005E-4</v>
+        <v>3.8568738021742911E-4</v>
       </c>
       <c r="I65">
         <f t="shared" si="4"/>
-        <v>70.0074759635079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>214.20197869431522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>100000</v>
@@ -4597,7 +6187,7 @@
         <v>-230698391</v>
       </c>
       <c r="E66">
-        <v>81.269000000000005</v>
+        <v>275.54000000000002</v>
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
@@ -4605,16 +6195,16 @@
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>1.2184714569511602E-4</v>
+        <v>4.131189324937217E-4</v>
       </c>
       <c r="I66">
         <f t="shared" si="4"/>
-        <v>89.374650000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.45974999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>100000</v>
@@ -4626,7 +6216,7 @@
         <v>-230168572</v>
       </c>
       <c r="E67">
-        <v>88.596000000000004</v>
+        <v>274.20999999999998</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F69" si="5">LOG10(B67)*C67</f>
@@ -4634,16 +6224,16 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G69" si="6">E67/F67</f>
-        <v>1.3301304667677572E-4</v>
+        <v>4.1168345669374086E-4</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I69" si="7">F67*$H$2</f>
-        <v>89.253380000000007</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.08870000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>100000</v>
@@ -4655,7 +6245,7 @@
         <v>-231393935</v>
       </c>
       <c r="E68">
-        <v>87.686999999999998</v>
+        <v>314.70999999999998</v>
       </c>
       <c r="F68">
         <f t="shared" si="5"/>
@@ -4663,16 +6253,16 @@
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>1.3134267996764627E-4</v>
+        <v>4.7139091099727384E-4</v>
       </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>89.46108000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>273.7242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>100000</v>
@@ -4684,7 +6274,7 @@
         <v>-231011693</v>
       </c>
       <c r="E69">
-        <v>87.004000000000005</v>
+        <v>235.8</v>
       </c>
       <c r="F69">
         <f t="shared" si="5"/>
@@ -4692,19 +6282,15 @@
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>1.3037920622194915E-4</v>
+        <v>3.5335636093898685E-4</v>
       </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>89.420209999999997</v>
+        <v>273.59915000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E69">
-    <sortCondition ref="A1:A69"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/first assignment/result_prim.xlsx
+++ b/first assignment/result_prim.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Advanced Algorithm\AdvancedAlgorithms-assignments\first assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4D4B1B-3EEA-4299-B0FA-0A61AF9AA24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2719178-4F42-4D5F-BDD1-B6490913E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result_prim" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -269,7 +280,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1847,7 +1858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]result_kruskal_union_find!$V$2:$V$18</c:f>
+              <c:f>[1]result_kruskal_union_find!$V$2:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -3431,207 +3442,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="result_prim"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="U2">
-            <v>10</v>
-          </cell>
-          <cell r="V2">
-            <v>8.5000000000000006E-3</v>
-          </cell>
-          <cell r="W2">
-            <v>1.828E-3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="U3">
-            <v>20</v>
-          </cell>
-          <cell r="V3">
-            <v>0.99550000000000005</v>
-          </cell>
-          <cell r="W3">
-            <v>5.64E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="U4">
-            <v>40</v>
-          </cell>
-          <cell r="V4">
-            <v>2.6250000000000002E-2</v>
-          </cell>
-          <cell r="W4">
-            <v>1.4161999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="U5">
-            <v>80</v>
-          </cell>
-          <cell r="V5">
-            <v>4.9500000000000002E-2</v>
-          </cell>
-          <cell r="W5">
-            <v>3.4375000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="U6">
-            <v>100</v>
-          </cell>
-          <cell r="V6">
-            <v>6.3750000000000001E-2</v>
-          </cell>
-          <cell r="W6">
-            <v>4.539E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="U7">
-            <v>200</v>
-          </cell>
-          <cell r="V7">
-            <v>0.12575</v>
-          </cell>
-          <cell r="W7">
-            <v>0.104835</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="U8">
-            <v>400</v>
-          </cell>
-          <cell r="V8">
-            <v>0.32150000000000001</v>
-          </cell>
-          <cell r="W8">
-            <v>0.23466699999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="U9">
-            <v>800</v>
-          </cell>
-          <cell r="V9">
-            <v>0.53699999999999992</v>
-          </cell>
-          <cell r="W9">
-            <v>0.52387700000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="U10">
-            <v>1000</v>
-          </cell>
-          <cell r="V10">
-            <v>0.60075000000000001</v>
-          </cell>
-          <cell r="W10">
-            <v>0.67383800000000005</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="U11">
-            <v>2000</v>
-          </cell>
-          <cell r="V11">
-            <v>1.3245</v>
-          </cell>
-          <cell r="W11">
-            <v>1.498618</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="U12">
-            <v>4000</v>
-          </cell>
-          <cell r="V12">
-            <v>3.1357500000000003</v>
-          </cell>
-          <cell r="W12">
-            <v>3.2734709999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="U13">
-            <v>8000</v>
-          </cell>
-          <cell r="V13">
-            <v>6.7137499999999992</v>
-          </cell>
-          <cell r="W13">
-            <v>7.098725</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="U14">
-            <v>10000</v>
-          </cell>
-          <cell r="V14">
-            <v>6.7255000000000003</v>
-          </cell>
-          <cell r="W14">
-            <v>9.05063</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="U15">
-            <v>20000</v>
-          </cell>
-          <cell r="V15">
-            <v>17.395500000000002</v>
-          </cell>
-          <cell r="W15">
-            <v>19.528960000000001</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="U16">
-            <v>40000</v>
-          </cell>
-          <cell r="V16">
-            <v>32.036250000000003</v>
-          </cell>
-          <cell r="W16">
-            <v>41.742690000000003</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="U17">
-            <v>80000</v>
-          </cell>
-          <cell r="V17">
-            <v>68.098500000000001</v>
-          </cell>
-          <cell r="W17">
-            <v>88.913600000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="U18">
-            <v>100000</v>
-          </cell>
-          <cell r="V18">
-            <v>86.13900000000001</v>
-          </cell>
-          <cell r="W18">
-            <v>113.3892</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="result_kruskal_union_find"/>
     </sheetNames>
     <sheetDataSet>
@@ -4023,15 +3833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y46" sqref="Y46"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
